--- a/cplex-cpp/base.xlsx
+++ b/cplex-cpp/base.xlsx
@@ -15,11 +15,12 @@
     <sheet name="base" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>graph</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>другая сатурация</t>
+  </si>
+  <si>
+    <t>раскрашиваю рекурсивно</t>
+  </si>
+  <si>
+    <t>итерация локального поиска</t>
   </si>
 </sst>
 </file>
@@ -611,10 +618,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,18 +944,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,8 +972,14 @@
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -983,8 +998,11 @@
       <c r="F2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1003,8 +1021,11 @@
       <c r="F3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1023,8 +1044,11 @@
       <c r="F4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1067,11 @@
       <c r="F5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1060,11 +1087,14 @@
       <c r="E6" s="1">
         <v>36</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1083,8 +1113,11 @@
       <c r="F7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1100,11 +1133,14 @@
       <c r="E8" s="1">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1120,11 +1156,14 @@
       <c r="E9" s="1">
         <v>48</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1140,11 +1179,14 @@
       <c r="E10" s="1">
         <v>38</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1163,8 +1205,11 @@
       <c r="F11">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1183,8 +1228,11 @@
       <c r="F12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1203,8 +1251,11 @@
       <c r="F13">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1274,11 @@
       <c r="F14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1243,8 +1297,11 @@
       <c r="F15">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1260,11 +1317,14 @@
       <c r="E16" s="1">
         <v>13</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1280,11 +1340,14 @@
       <c r="E17" s="1">
         <v>33</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1300,11 +1363,14 @@
       <c r="E18" s="1">
         <v>9</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1323,8 +1389,11 @@
       <c r="F19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1340,11 +1409,14 @@
       <c r="E20" s="1">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1363,8 +1435,11 @@
       <c r="F21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1380,11 +1455,14 @@
       <c r="E22" s="1">
         <v>31</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1400,11 +1478,14 @@
       <c r="E23" s="1">
         <v>13</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1420,11 +1501,14 @@
       <c r="E24" s="1">
         <v>30</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1440,11 +1524,14 @@
       <c r="E25" s="1">
         <v>18</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1463,8 +1550,11 @@
       <c r="F26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1480,177 +1570,336 @@
       <c r="E27" s="1">
         <v>15</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="14.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="14.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>33</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>358</v>
       </c>
-    </row>
-    <row r="34" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>417</v>
+      </c>
+      <c r="H33">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>110</v>
+      </c>
+      <c r="H35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>485</v>
       </c>
-    </row>
-    <row r="37" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>517</v>
+      </c>
+      <c r="H36">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>330</v>
+      </c>
+      <c r="H37">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>1471</v>
       </c>
-    </row>
-    <row r="39" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1528</v>
+      </c>
+      <c r="H38">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>297</v>
       </c>
-    </row>
-    <row r="40" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>309</v>
+      </c>
+      <c r="H39">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>149</v>
+      </c>
+      <c r="H40">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>72</v>
+      </c>
+      <c r="H42">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>91</v>
+      </c>
+      <c r="H43">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>114</v>
+      </c>
+      <c r="H44">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>34</v>
+      </c>
+      <c r="H45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>27</v>
+      </c>
+      <c r="H46">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>25</v>
+      </c>
+      <c r="H47">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>43</v>
+      </c>
+      <c r="H48">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>302</v>
       </c>
-    </row>
-    <row r="50" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>322</v>
+      </c>
+      <c r="H49">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>59</v>
+      </c>
+      <c r="H50">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>264</v>
+      </c>
+      <c r="H51">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>91</v>
+      </c>
+      <c r="H52">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>147</v>
+      </c>
+      <c r="H53">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>70</v>
+      </c>
+      <c r="H54">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:8" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>0</v>
       </c>
